--- a/data/source/Final_Data _추가_test.xlsx
+++ b/data/source/Final_Data _추가_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Master\data\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63235B2-4BAC-4DC6-B434-4BF57535C7D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09113EAC-E54A-4839-AAA9-FBB1DC75C436}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16905" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <sheet name="Raw data" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -754,7 +755,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1814,27 +1815,27 @@
       </c>
       <c r="L18">
         <f ca="1">G18*(RANDBETWEEN($L$28-1,$L$28+1)/100)</f>
-        <v>1064.3999999999999</v>
+        <v>1028.9199999999998</v>
       </c>
       <c r="M18">
         <f ca="1">G18*(RANDBETWEEN($M$28-1,$M$28+1)/100)</f>
-        <v>851.52</v>
+        <v>816.04000000000008</v>
       </c>
       <c r="N18">
         <f ca="1">G18*(RANDBETWEEN($N$28-1,$N$28+1)/100)</f>
-        <v>319.32</v>
+        <v>390.28000000000003</v>
       </c>
       <c r="O18">
         <f ca="1">G18*(RANDBETWEEN($O$28-1,$O$28+1)/100)</f>
-        <v>177.4</v>
+        <v>141.92000000000002</v>
       </c>
       <c r="P18">
         <f ca="1">SUM(I18:O18)</f>
-        <v>3477.0400000000004</v>
+        <v>3441.56</v>
       </c>
       <c r="R18">
         <f t="shared" ref="R18:R27" ca="1" si="2">G18-P18</f>
-        <v>70.959999999999582</v>
+        <v>106.44000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1872,15 +1873,15 @@
       </c>
       <c r="K19">
         <f t="shared" ref="K19:K27" ca="1" si="5">G19*(RANDBETWEEN($K$28-1,$K$28+1)/100)</f>
-        <v>843.15</v>
+        <v>883.3</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19:L27" ca="1" si="6">G19*(RANDBETWEEN($L$28-1,$L$28+1)/100)</f>
-        <v>1204.5</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19:M27" ca="1" si="7">G19*(RANDBETWEEN($M$28-1,$M$28+1)/100)</f>
-        <v>923.45</v>
+        <v>883.3</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19:N27" ca="1" si="8">G19*(RANDBETWEEN($N$28-1,$N$28+1)/100)</f>
@@ -1888,15 +1889,15 @@
       </c>
       <c r="O19">
         <f t="shared" ref="O19:O27" ca="1" si="9">G19*(RANDBETWEEN($O$28-1,$O$28+1)/100)</f>
-        <v>200.75</v>
+        <v>160.6</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19:P27" ca="1" si="10">SUM(I19:O19)</f>
-        <v>3894.5499999999997</v>
+        <v>3894.55</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="2"/>
-        <v>120.45000000000027</v>
+        <v>120.44999999999982</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -1930,7 +1931,7 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="4"/>
-        <v>376.40000000000003</v>
+        <v>423.45</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="5"/>
@@ -1938,7 +1939,7 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="6"/>
-        <v>1458.55</v>
+        <v>1364.4499999999998</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="7"/>
@@ -1954,11 +1955,11 @@
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="10"/>
-        <v>4705</v>
+        <v>4657.95</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>47.050000000000182</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -1996,11 +1997,11 @@
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="5"/>
-        <v>1348.26</v>
+        <v>1289.6400000000001</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="6"/>
-        <v>1817.22</v>
+        <v>1699.9799999999998</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="7"/>
@@ -2016,11 +2017,11 @@
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="10"/>
-        <v>5862</v>
+        <v>5686.1399999999994</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>175.86000000000058</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -2054,7 +2055,7 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="4"/>
-        <v>550</v>
+        <v>618.75</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="5"/>
@@ -2066,11 +2067,11 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="7"/>
-        <v>1650</v>
+        <v>1581.25</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="8"/>
-        <v>687.5</v>
+        <v>756.25</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="9"/>
@@ -2078,11 +2079,11 @@
       </c>
       <c r="P22">
         <f ca="1">SUM(I22:O22)</f>
-        <v>6737.5</v>
+        <v>6806.25</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="2"/>
-        <v>137.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2124,7 +2125,7 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="6"/>
-        <v>1853.1</v>
+        <v>1980.9</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="7"/>
@@ -2132,7 +2133,7 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="8"/>
-        <v>702.9</v>
+        <v>575.1</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="9"/>
@@ -2178,15 +2179,15 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="4"/>
-        <v>495.6</v>
+        <v>557.54999999999995</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="5"/>
-        <v>1424.8500000000001</v>
+        <v>1362.9</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="6"/>
-        <v>1796.55</v>
+        <v>1858.5</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="7"/>
@@ -2194,19 +2195,19 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="8"/>
-        <v>619.5</v>
+        <v>681.45</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="9"/>
-        <v>309.75</v>
+        <v>247.8</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="10"/>
-        <v>6195</v>
+        <v>6256.95</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-61.949999999999818</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2244,7 +2245,7 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="5"/>
-        <v>1095.5999999999999</v>
+        <v>1145.4000000000001</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="6"/>
@@ -2256,19 +2257,19 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="8"/>
-        <v>448.2</v>
+        <v>547.79999999999995</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="9"/>
-        <v>249</v>
+        <v>199.20000000000002</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="10"/>
-        <v>4880.3999999999996</v>
+        <v>4980</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="2"/>
-        <v>99.600000000000364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2302,35 +2303,35 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="4"/>
-        <v>467.46</v>
+        <v>415.52</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="5"/>
-        <v>1194.6200000000001</v>
+        <v>1142.68</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="6"/>
-        <v>1506.26</v>
+        <v>1558.2</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="7"/>
-        <v>1142.68</v>
+        <v>1246.56</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="8"/>
-        <v>519.4</v>
+        <v>467.46</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="9"/>
-        <v>207.76</v>
+        <v>259.7</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="10"/>
-        <v>5090.12</v>
+        <v>5142.0599999999995</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="2"/>
-        <v>103.88000000000011</v>
+        <v>51.940000000000509</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -2372,7 +2373,7 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="6"/>
-        <v>927.9</v>
+        <v>958.83</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="7"/>
@@ -2384,15 +2385,15 @@
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="9"/>
-        <v>123.72</v>
+        <v>154.65</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="10"/>
-        <v>3062.07</v>
+        <v>3123.9300000000003</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="2"/>
-        <v>30.929999999999836</v>
+        <v>-30.930000000000291</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -2521,15 +2522,15 @@
       </c>
       <c r="L32">
         <f ca="1">G32*(RANDBETWEEN($L$42-1,$L$42+1)/100)</f>
-        <v>96.25</v>
+        <v>93.5</v>
       </c>
       <c r="M32">
         <f ca="1">G32*(RANDBETWEEN($M$42-1,$M$42+1)/100)</f>
-        <v>63.25</v>
+        <v>60.5</v>
       </c>
       <c r="N32">
         <f ca="1">G32*(RANDBETWEEN($N$42-1,$N$42+1)/100)</f>
-        <v>24.75</v>
+        <v>27.5</v>
       </c>
       <c r="O32">
         <f ca="1">G32*(RANDBETWEEN($O$42-1,$O$42+1)/100)</f>
@@ -2537,11 +2538,11 @@
       </c>
       <c r="P32">
         <f ca="1">SUM(I32:O32)</f>
-        <v>264</v>
+        <v>261.25</v>
       </c>
       <c r="R32">
         <f t="shared" ref="R32:R41" ca="1" si="11">G32-P32</f>
-        <v>11</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -2575,7 +2576,7 @@
       </c>
       <c r="J33">
         <f t="shared" ref="J33:J41" ca="1" si="13">G33*(RANDBETWEEN($J$42-1,$J$42+1)/100)</f>
-        <v>13.9</v>
+        <v>16.68</v>
       </c>
       <c r="K33">
         <f t="shared" ref="K33:K41" ca="1" si="14">G33*(RANDBETWEEN($K$42-1,$K$42+1)/100)</f>
@@ -2587,11 +2588,11 @@
       </c>
       <c r="M33">
         <f t="shared" ref="M33:M41" ca="1" si="16">G33*(RANDBETWEEN($M$42-1,$M$42+1)/100)</f>
-        <v>63.940000000000005</v>
+        <v>66.72</v>
       </c>
       <c r="N33">
         <f t="shared" ref="N33:N41" ca="1" si="17">G33*(RANDBETWEEN($N$42-1,$N$42+1)/100)</f>
-        <v>27.8</v>
+        <v>25.02</v>
       </c>
       <c r="O33">
         <f t="shared" ref="O33:O41" ca="1" si="18">G33*(RANDBETWEEN($O$42-1,$O$42+1)/100)</f>
@@ -2599,11 +2600,11 @@
       </c>
       <c r="P33">
         <f t="shared" ref="P33:P41" ca="1" si="19">SUM(I33:O33)</f>
-        <v>280.77999999999997</v>
+        <v>283.56</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="11"/>
-        <v>-2.7799999999999727</v>
+        <v>-5.5600000000000023</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
@@ -2645,11 +2646,11 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="15"/>
-        <v>108.14999999999999</v>
+        <v>105.06</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="16"/>
-        <v>74.16</v>
+        <v>71.070000000000007</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="17"/>
@@ -2661,11 +2662,11 @@
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="19"/>
-        <v>305.90999999999997</v>
+        <v>299.73</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0900000000000318</v>
+        <v>9.2699999999999818</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
@@ -2699,19 +2700,19 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="13"/>
-        <v>18.36</v>
+        <v>15.3</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="14"/>
-        <v>64.259999999999991</v>
+        <v>58.14</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="15"/>
-        <v>104.04</v>
+        <v>107.1</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="16"/>
-        <v>73.44</v>
+        <v>67.320000000000007</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="17"/>
@@ -2723,11 +2724,11 @@
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="19"/>
-        <v>306</v>
+        <v>293.76000000000005</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>12.239999999999952</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -2761,23 +2762,23 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="13"/>
-        <v>22.05</v>
+        <v>26.459999999999997</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="14"/>
-        <v>83.79</v>
+        <v>92.61</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="15"/>
-        <v>154.35</v>
+        <v>158.76</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="16"/>
-        <v>101.43</v>
+        <v>105.83999999999999</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="17"/>
-        <v>44.1</v>
+        <v>48.51</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="18"/>
@@ -2785,11 +2786,11 @@
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="19"/>
-        <v>432.18000000000006</v>
+        <v>458.64</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="11"/>
-        <v>8.8199999999999363</v>
+        <v>-17.639999999999986</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -2827,7 +2828,7 @@
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="14"/>
-        <v>94.71</v>
+        <v>85.69</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="15"/>
@@ -2835,23 +2836,23 @@
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="16"/>
-        <v>103.73</v>
+        <v>99.22</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="17"/>
-        <v>40.589999999999996</v>
+        <v>45.1</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="18"/>
-        <v>22.55</v>
+        <v>18.04</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="19"/>
-        <v>451</v>
+        <v>437.47000000000008</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>13.529999999999916</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -2885,7 +2886,7 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="13"/>
-        <v>20.05</v>
+        <v>24.06</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="14"/>
@@ -2893,27 +2894,27 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="15"/>
-        <v>140.35</v>
+        <v>136.34</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="16"/>
-        <v>96.24</v>
+        <v>88.22</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="17"/>
-        <v>36.089999999999996</v>
+        <v>40.1</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="18"/>
-        <v>20.05</v>
+        <v>16.04</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="19"/>
-        <v>396.99</v>
+        <v>388.97000000000008</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0099999999999909</v>
+        <v>12.029999999999916</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -2947,19 +2948,19 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="13"/>
-        <v>17.16</v>
+        <v>14.3</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="14"/>
-        <v>60.059999999999995</v>
+        <v>57.2</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="15"/>
-        <v>100.1</v>
+        <v>97.240000000000009</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="16"/>
-        <v>65.78</v>
+        <v>62.92</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="17"/>
@@ -2971,11 +2972,11 @@
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="19"/>
-        <v>286</v>
+        <v>274.56000000000006</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>11.439999999999941</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -3021,11 +3022,11 @@
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="16"/>
-        <v>73.44</v>
+        <v>67.320000000000007</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="17"/>
-        <v>27.54</v>
+        <v>30.6</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="18"/>
@@ -3033,11 +3034,11 @@
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="19"/>
-        <v>306</v>
+        <v>302.94000000000005</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>3.0599999999999454</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
@@ -3075,7 +3076,7 @@
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>51.3</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="15"/>
@@ -3087,19 +3088,19 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="17"/>
-        <v>29.7</v>
+        <v>27</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="18"/>
-        <v>13.5</v>
+        <v>10.8</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="19"/>
-        <v>264.60000000000002</v>
+        <v>256.5</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3999999999999773</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
@@ -3225,11 +3226,11 @@
       </c>
       <c r="L46">
         <f ca="1">G46*(RANDBETWEEN($L$56-1,$L$56+1)/100)</f>
-        <v>35.1</v>
+        <v>39</v>
       </c>
       <c r="M46">
         <f ca="1">G46*(RANDBETWEEN($M$56-1,$M$56+1)/100)</f>
-        <v>81.899999999999991</v>
+        <v>78</v>
       </c>
       <c r="N46">
         <f ca="1">G46*(RANDBETWEEN($N$56-1,$N$56+1)/100)</f>
@@ -3287,7 +3288,7 @@
       </c>
       <c r="L47">
         <f t="shared" ref="L47:L55" ca="1" si="24">G47*(RANDBETWEEN($L$56-1,$L$56+1)/100)</f>
-        <v>38.339999999999996</v>
+        <v>42.6</v>
       </c>
       <c r="M47">
         <f t="shared" ref="M47:M55" ca="1" si="25">G47*(RANDBETWEEN($M$56-1,$M$56+1)/100)</f>
@@ -3295,19 +3296,19 @@
       </c>
       <c r="N47">
         <f t="shared" ref="N47:N55" ca="1" si="26">G47*(RANDBETWEEN($N$56-1,$N$56+1)/100)</f>
-        <v>153.35999999999999</v>
+        <v>149.1</v>
       </c>
       <c r="O47">
         <f t="shared" ref="O47:O55" ca="1" si="27">G47*(RANDBETWEEN($O$56-1,$O$56+1)/100)</f>
-        <v>102.24</v>
+        <v>97.98</v>
       </c>
       <c r="P47">
         <f t="shared" ref="P47:P55" ca="1" si="28">SUM(I47:O47)</f>
-        <v>430.26</v>
+        <v>426</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="20"/>
-        <v>-4.2599999999999909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -3345,7 +3346,7 @@
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="23"/>
-        <v>20.650000000000002</v>
+        <v>24.779999999999998</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="24"/>
@@ -3353,7 +3354,7 @@
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="25"/>
-        <v>86.72999999999999</v>
+        <v>78.47</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="26"/>
@@ -3365,11 +3366,11 @@
       </c>
       <c r="P48">
         <f ca="1">SUM(I48:O48)</f>
-        <v>413</v>
+        <v>408.87</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>4.1299999999999955</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
@@ -3407,7 +3408,7 @@
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="23"/>
-        <v>23.8</v>
+        <v>28.56</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="24"/>
@@ -3415,7 +3416,7 @@
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="25"/>
-        <v>95.2</v>
+        <v>90.44</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="26"/>
@@ -3423,15 +3424,15 @@
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="27"/>
-        <v>109.48</v>
+        <v>114.24</v>
       </c>
       <c r="P49">
         <f t="shared" ca="1" si="28"/>
-        <v>466.48</v>
+        <v>471.24</v>
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="20"/>
-        <v>9.5199999999999818</v>
+        <v>4.7599999999999909</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
@@ -3473,7 +3474,7 @@
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="24"/>
-        <v>46.89</v>
+        <v>52.1</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="25"/>
@@ -3481,7 +3482,7 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="26"/>
-        <v>187.56</v>
+        <v>182.35</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="27"/>
@@ -3535,7 +3536,7 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="24"/>
-        <v>53.1</v>
+        <v>59</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="25"/>
@@ -3543,7 +3544,7 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="26"/>
-        <v>206.5</v>
+        <v>212.4</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="27"/>
@@ -3551,11 +3552,11 @@
       </c>
       <c r="P51">
         <f t="shared" ca="1" si="28"/>
-        <v>590</v>
+        <v>601.80000000000007</v>
       </c>
       <c r="R51">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>-11.800000000000068</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -3593,11 +3594,11 @@
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="23"/>
-        <v>25.68</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="24"/>
-        <v>47.08</v>
+        <v>42.800000000000004</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="25"/>
@@ -3605,19 +3606,19 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="26"/>
-        <v>154.07999999999998</v>
+        <v>149.79999999999998</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="27"/>
-        <v>94.16</v>
+        <v>102.72</v>
       </c>
       <c r="P52">
         <f t="shared" ca="1" si="28"/>
-        <v>423.72</v>
+        <v>419.44000000000005</v>
       </c>
       <c r="R52">
         <f t="shared" ca="1" si="20"/>
-        <v>4.2799999999999727</v>
+        <v>8.5599999999999454</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -3655,19 +3656,19 @@
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="23"/>
-        <v>20.100000000000001</v>
+        <v>24.119999999999997</v>
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="24"/>
-        <v>44.22</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="25"/>
-        <v>80.400000000000006</v>
+        <v>76.38</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="26"/>
-        <v>144.72</v>
+        <v>136.68</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="27"/>
@@ -3675,11 +3676,11 @@
       </c>
       <c r="P53">
         <f t="shared" ca="1" si="28"/>
-        <v>402</v>
+        <v>389.94000000000005</v>
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>12.059999999999945</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
@@ -3717,31 +3718,31 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="23"/>
-        <v>24.84</v>
+        <v>20.700000000000003</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="24"/>
-        <v>45.54</v>
+        <v>41.400000000000006</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="25"/>
-        <v>82.800000000000011</v>
+        <v>86.94</v>
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="26"/>
-        <v>140.76000000000002</v>
+        <v>144.89999999999998</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="27"/>
-        <v>99.36</v>
+        <v>91.08</v>
       </c>
       <c r="P54">
         <f t="shared" ca="1" si="28"/>
-        <v>418.14000000000004</v>
+        <v>409.85999999999996</v>
       </c>
       <c r="R54">
         <f t="shared" ca="1" si="20"/>
-        <v>-4.1400000000000432</v>
+        <v>4.1400000000000432</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -3775,11 +3776,11 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="22"/>
-        <v>15.68</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="23"/>
-        <v>23.52</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="24"/>
@@ -3787,23 +3788,23 @@
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="25"/>
-        <v>74.48</v>
+        <v>82.32</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="26"/>
-        <v>141.12</v>
+        <v>133.28</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="27"/>
-        <v>86.24</v>
+        <v>90.160000000000011</v>
       </c>
       <c r="P55">
         <f t="shared" ca="1" si="28"/>
-        <v>384.16</v>
+        <v>388.08</v>
       </c>
       <c r="R55">
         <f t="shared" ca="1" si="20"/>
-        <v>7.839999999999975</v>
+        <v>3.9200000000000159</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
@@ -3921,7 +3922,7 @@
       </c>
       <c r="J60">
         <f ca="1">G60*(RANDBETWEEN($J$70-1,$J$70+1)/100)</f>
-        <v>20.100000000000001</v>
+        <v>16.080000000000002</v>
       </c>
       <c r="K60">
         <f ca="1">G60*(RANDBETWEEN($K$70-1,$K$70+1)/100)</f>
@@ -3929,11 +3930,11 @@
       </c>
       <c r="L60">
         <f ca="1">G60*(RANDBETWEEN($L$70-1,$L$70+1)/100)</f>
-        <v>68.34</v>
+        <v>64.320000000000007</v>
       </c>
       <c r="M60">
         <f ca="1">G60*(RANDBETWEEN($M$70-1,$M$70+1)/100)</f>
-        <v>140.69999999999999</v>
+        <v>144.72</v>
       </c>
       <c r="N60">
         <f ca="1">G60*(RANDBETWEEN($N$70-1,$N$70+1)/100)</f>
@@ -3941,7 +3942,7 @@
       </c>
       <c r="O60">
         <f ca="1">G60*(RANDBETWEEN($O$70-1,$O$70+1)/100)</f>
-        <v>60.3</v>
+        <v>64.320000000000007</v>
       </c>
       <c r="P60">
         <f ca="1">SUM(I60:O60)</f>
@@ -3987,31 +3988,31 @@
       </c>
       <c r="K61">
         <f t="shared" ref="K61:K69" ca="1" si="32">G61*(RANDBETWEEN($K$70-1,$K$70+1)/100)</f>
-        <v>33.35</v>
+        <v>40.019999999999996</v>
       </c>
       <c r="L61">
         <f t="shared" ref="L61:L69" ca="1" si="33">G61*(RANDBETWEEN($L$70-1,$L$70+1)/100)</f>
-        <v>120.06</v>
+        <v>113.39000000000001</v>
       </c>
       <c r="M61">
         <f t="shared" ref="M61:M69" ca="1" si="34">G61*(RANDBETWEEN($M$70-1,$M$70+1)/100)</f>
-        <v>240.12</v>
+        <v>226.78000000000003</v>
       </c>
       <c r="N61">
         <f t="shared" ref="N61:N69" ca="1" si="35">G61*(RANDBETWEEN($N$70-1,$N$70+1)/100)</f>
-        <v>133.4</v>
+        <v>140.07</v>
       </c>
       <c r="O61">
         <f t="shared" ref="O61:O69" ca="1" si="36">G61*(RANDBETWEEN($O$70-1,$O$70+1)/100)</f>
-        <v>93.38000000000001</v>
+        <v>100.05</v>
       </c>
       <c r="P61">
         <f t="shared" ref="P61:P69" ca="1" si="37">SUM(I61:O61)</f>
-        <v>660.33</v>
+        <v>660.32999999999993</v>
       </c>
       <c r="R61">
         <f t="shared" ca="1" si="29"/>
-        <v>6.6699999999999591</v>
+        <v>6.6700000000000728</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
@@ -4053,27 +4054,27 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="33"/>
-        <v>80.580000000000013</v>
+        <v>75.84</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="34"/>
-        <v>165.89999999999998</v>
+        <v>170.64</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="35"/>
-        <v>90.06</v>
+        <v>99.539999999999992</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="36"/>
-        <v>75.84</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="P62">
         <f t="shared" ca="1" si="37"/>
-        <v>469.26</v>
+        <v>474</v>
       </c>
       <c r="R62">
         <f t="shared" ca="1" si="29"/>
-        <v>4.7400000000000091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
@@ -4119,7 +4120,7 @@
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="34"/>
-        <v>223.38000000000002</v>
+        <v>229.95</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="35"/>
@@ -4131,11 +4132,11 @@
       </c>
       <c r="P63">
         <f t="shared" ca="1" si="37"/>
-        <v>657.00000000000011</v>
+        <v>663.57</v>
       </c>
       <c r="R63">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
+        <v>-6.57000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
@@ -4169,11 +4170,11 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="31"/>
-        <v>33.85</v>
+        <v>27.080000000000002</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="32"/>
-        <v>40.619999999999997</v>
+        <v>33.85</v>
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="33"/>
@@ -4185,19 +4186,19 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="35"/>
-        <v>128.63</v>
+        <v>135.4</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="36"/>
-        <v>101.55</v>
+        <v>94.780000000000015</v>
       </c>
       <c r="P64">
         <f t="shared" ca="1" si="37"/>
-        <v>663.45999999999992</v>
+        <v>649.91999999999996</v>
       </c>
       <c r="R64">
         <f t="shared" ca="1" si="29"/>
-        <v>13.540000000000077</v>
+        <v>27.080000000000041</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -4231,7 +4232,7 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="31"/>
-        <v>34.15</v>
+        <v>27.32</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="32"/>
@@ -4239,15 +4240,15 @@
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="33"/>
-        <v>122.94</v>
+        <v>116.11000000000001</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="34"/>
-        <v>239.04999999999998</v>
+        <v>232.22000000000003</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="35"/>
-        <v>136.6</v>
+        <v>143.43</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="36"/>
@@ -4255,11 +4256,11 @@
       </c>
       <c r="P65">
         <f t="shared" ca="1" si="37"/>
-        <v>689.82999999999993</v>
+        <v>676.17000000000007</v>
       </c>
       <c r="R65">
         <f t="shared" ca="1" si="29"/>
-        <v>-6.8299999999999272</v>
+        <v>6.8299999999999272</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -4293,7 +4294,7 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="31"/>
-        <v>20.48</v>
+        <v>25.6</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="32"/>
@@ -4301,27 +4302,27 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="33"/>
-        <v>92.16</v>
+        <v>81.92</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="34"/>
-        <v>179.2</v>
+        <v>174.08</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="35"/>
-        <v>97.28</v>
+        <v>102.4</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="36"/>
-        <v>81.92</v>
+        <v>76.8</v>
       </c>
       <c r="P66">
         <f t="shared" ca="1" si="37"/>
-        <v>501.76000000000005</v>
+        <v>491.52000000000004</v>
       </c>
       <c r="R66">
         <f t="shared" ca="1" si="29"/>
-        <v>10.239999999999952</v>
+        <v>20.479999999999961</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
@@ -4355,7 +4356,7 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="31"/>
-        <v>26.2</v>
+        <v>32.75</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="32"/>
@@ -4363,11 +4364,11 @@
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="33"/>
-        <v>117.89999999999999</v>
+        <v>104.8</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="34"/>
-        <v>222.70000000000002</v>
+        <v>235.79999999999998</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="35"/>
@@ -4379,11 +4380,11 @@
       </c>
       <c r="P67">
         <f t="shared" ca="1" si="37"/>
-        <v>635.35</v>
+        <v>641.9</v>
       </c>
       <c r="R67">
         <f t="shared" ca="1" si="29"/>
-        <v>19.649999999999977</v>
+        <v>13.100000000000023</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
@@ -4421,7 +4422,7 @@
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="32"/>
-        <v>28</v>
+        <v>33.6</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="33"/>
@@ -4433,19 +4434,19 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="35"/>
-        <v>106.4</v>
+        <v>117.6</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="36"/>
-        <v>84</v>
+        <v>89.600000000000009</v>
       </c>
       <c r="P68">
         <f t="shared" ca="1" si="37"/>
-        <v>526.4</v>
+        <v>548.80000000000007</v>
       </c>
       <c r="R68">
         <f t="shared" ca="1" si="29"/>
-        <v>33.600000000000023</v>
+        <v>11.199999999999932</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
@@ -4479,19 +4480,19 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="31"/>
-        <v>21.450000000000003</v>
+        <v>17.16</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="32"/>
-        <v>21.450000000000003</v>
+        <v>25.74</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="33"/>
-        <v>72.930000000000007</v>
+        <v>77.22</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="34"/>
-        <v>150.14999999999998</v>
+        <v>154.44</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="35"/>
@@ -4499,15 +4500,15 @@
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="36"/>
-        <v>64.349999999999994</v>
+        <v>60.06</v>
       </c>
       <c r="P69">
         <f t="shared" ca="1" si="37"/>
-        <v>420.41999999999996</v>
+        <v>424.71000000000004</v>
       </c>
       <c r="R69">
         <f t="shared" ca="1" si="29"/>
-        <v>8.5800000000000409</v>
+        <v>4.2899999999999636</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
@@ -4537,6 +4538,21 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0208C6D8-0F1B-41F8-B81F-7AEB2C50462E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4545,7 +4561,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4885,7 +4901,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5268,7 +5284,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5693,7 +5709,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6076,7 +6092,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6543,7 +6559,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C17" sqref="C17:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6970,8 +6986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BAFF92-DA75-4E91-A1E0-3063E99BCB76}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
